--- a/电竞1+X-高级-题库.xlsx
+++ b/电竞1+X-高级-题库.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\团子\作业\第三学期\1+x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57C6D9B-ED54-4D52-94F0-5A48FF3B6062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C23CB5-2E33-443E-99EE-E6703200E445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="108" windowWidth="21288" windowHeight="11604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单选" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">单选!$A$1:$G$148</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">单选!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1608,7 +1608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2552,12 +2552,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141:G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -5982,7 +5982,7 @@
     <cfRule type="duplicateValues" dxfId="1" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" tooltip="https://baike.baidu.com/item/%E9%9B%B7%E5%85%8B%E9%9B%85%E6%9C%AA%E5%85%8B/524172"/>
+    <hyperlink ref="F20" r:id="rId1" tooltip="https://baike.baidu.com/item/%E9%9B%B7%E5%85%8B%E9%9B%85%E6%9C%AA%E5%85%8B/524172" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39305555555555555" right="0.39305555555555555" top="0.39305555555555555" bottom="0.39305555555555555" header="0.39305555555555555" footer="0.39305555555555555"/>
@@ -5992,7 +5992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
